--- a/espn_scrapper/IPL/Royal Challengers Bangalore/Devdutt Padikkal .xlsx
+++ b/espn_scrapper/IPL/Royal Challengers Bangalore/Devdutt Padikkal .xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -962,9 +962,254 @@
         <v>139.13</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v xml:space="preserve"> Oct 15 2020</v>
+      </c>
+      <c r="B17" t="str">
+        <v xml:space="preserve"> Sharjah</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Kings XI won by 8 wickets</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="F17" t="str">
+        <v xml:space="preserve">Devdutt Padikkal </v>
+      </c>
+      <c r="G17" t="str">
+        <v>18</v>
+      </c>
+      <c r="H17" t="str">
+        <v>12</v>
+      </c>
+      <c r="I17" t="str">
+        <v>1</v>
+      </c>
+      <c r="J17" t="str">
+        <v>1</v>
+      </c>
+      <c r="K17" t="str">
+        <v>150.00</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v xml:space="preserve"> Nov 6 2020</v>
+      </c>
+      <c r="B18" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Sunrisers won by 6 wickets (with 2 balls remaining)</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="F18" t="str">
+        <v xml:space="preserve">Devdutt Padikkal </v>
+      </c>
+      <c r="G18" t="str">
+        <v>1</v>
+      </c>
+      <c r="H18" t="str">
+        <v>6</v>
+      </c>
+      <c r="I18" t="str">
+        <v>0</v>
+      </c>
+      <c r="J18" t="str">
+        <v>0</v>
+      </c>
+      <c r="K18" t="str">
+        <v>16.66</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v xml:space="preserve"> Oct 21 2020</v>
+      </c>
+      <c r="B19" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="C19" t="str">
+        <v>RCB won by 8 wickets (with 39 balls remaining)</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="F19" t="str">
+        <v xml:space="preserve">Devdutt Padikkal </v>
+      </c>
+      <c r="G19" t="str">
+        <v>25</v>
+      </c>
+      <c r="H19" t="str">
+        <v>17</v>
+      </c>
+      <c r="I19" t="str">
+        <v>3</v>
+      </c>
+      <c r="J19" t="str">
+        <v>0</v>
+      </c>
+      <c r="K19" t="str">
+        <v>147.05</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v xml:space="preserve"> Oct 28 2020</v>
+      </c>
+      <c r="B20" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="F20" t="str">
+        <v xml:space="preserve">Devdutt Padikkal </v>
+      </c>
+      <c r="G20" t="str">
+        <v>74</v>
+      </c>
+      <c r="H20" t="str">
+        <v>45</v>
+      </c>
+      <c r="I20" t="str">
+        <v>12</v>
+      </c>
+      <c r="J20" t="str">
+        <v>1</v>
+      </c>
+      <c r="K20" t="str">
+        <v>164.44</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v xml:space="preserve"> Oct 10 2020</v>
+      </c>
+      <c r="B21" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="C21" t="str">
+        <v>RCB won by 37 runs</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="F21" t="str">
+        <v xml:space="preserve">Devdutt Padikkal </v>
+      </c>
+      <c r="G21" t="str">
+        <v>33</v>
+      </c>
+      <c r="H21" t="str">
+        <v>34</v>
+      </c>
+      <c r="I21" t="str">
+        <v>2</v>
+      </c>
+      <c r="J21" t="str">
+        <v>1</v>
+      </c>
+      <c r="K21" t="str">
+        <v>97.05</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v xml:space="preserve"> Oct 3 2020</v>
+      </c>
+      <c r="B22" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="C22" t="str">
+        <v>RCB won by 8 wickets (with 5 balls remaining)</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="F22" t="str">
+        <v xml:space="preserve">Devdutt Padikkal </v>
+      </c>
+      <c r="G22" t="str">
+        <v>63</v>
+      </c>
+      <c r="H22" t="str">
+        <v>45</v>
+      </c>
+      <c r="I22" t="str">
+        <v>6</v>
+      </c>
+      <c r="J22" t="str">
+        <v>1</v>
+      </c>
+      <c r="K22" t="str">
+        <v>140.00</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v xml:space="preserve"> Oct 25 2020</v>
+      </c>
+      <c r="B23" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Super Kings won by 8 wickets (with 8 balls remaining)</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="F23" t="str">
+        <v xml:space="preserve">Devdutt Padikkal </v>
+      </c>
+      <c r="G23" t="str">
+        <v>22</v>
+      </c>
+      <c r="H23" t="str">
+        <v>21</v>
+      </c>
+      <c r="I23" t="str">
+        <v>2</v>
+      </c>
+      <c r="J23" t="str">
+        <v>1</v>
+      </c>
+      <c r="K23" t="str">
+        <v>104.76</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K23"/>
   </ignoredErrors>
 </worksheet>
 </file>